--- a/VL.Research/XMLConfig/DeathMonitorUnder5Area/5岁以下儿童死亡监测表.xlsx
+++ b/VL.Research/XMLConfig/DeathMonitorUnder5Area/5岁以下儿童死亡监测表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="21240" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>5岁以下儿童死亡监测表</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
@@ -29,7 +34,6 @@
         <u/>
         <sz val="12"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
@@ -38,7 +42,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 年</t>
@@ -47,7 +50,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -57,7 +59,6 @@
         <u/>
         <sz val="12"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
@@ -66,7 +67,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  季度</t>
@@ -74,6 +74,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -81,7 +86,6 @@
         <u/>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">     浙江   </t>
@@ -90,7 +94,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>省（自治区、直辖市）</t>
@@ -100,7 +103,6 @@
         <u/>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -110,7 +112,6 @@
         <u/>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         </t>
@@ -120,7 +121,6 @@
         <u/>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -129,7 +129,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>区县</t>
@@ -169,15 +168,20 @@
     <t>女</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">性别 </t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">性别 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 不明</t>
     </r>
   </si>
@@ -192,6 +196,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -199,7 +209,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="华文宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -216,6 +225,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -223,7 +238,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="华文仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -240,20 +254,32 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">性别 </t>
-    </r>
-    <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">性别 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 不明</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -261,7 +287,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="华文仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -278,6 +303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -285,7 +316,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="华文仿宋"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -302,15 +332,21 @@
   </si>
   <si>
     <r>
-      <t>婴</t>
-    </r>
-    <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>婴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>儿</t>
     </r>
   </si>
@@ -375,25 +411,28 @@
     <t xml:space="preserve">填报单位    </t>
   </si>
   <si>
+    <t>@DataUser_FuWuJGMC</t>
+  </si>
+  <si>
     <t>填报人</t>
   </si>
   <si>
+    <t>@DataUser_name</t>
+  </si>
+  <si>
     <t>填报日期</t>
   </si>
   <si>
     <t>填报说明：1.本表由监测地区乡镇卫生院和社区卫生服务机构收集本辖区数据上报，统计范围为户籍和非户籍人口中5岁以下（0～4岁）儿童。</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  2.</t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -401,7 +440,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>本地户籍：①已报户籍儿童以本人户籍所在地；②未报户籍儿童以母亲孕产妇系统管理或户籍所在地。不包括户籍在监测地区但离开本地</t>
+      <t xml:space="preserve">  2.</t>
     </r>
     <r>
       <rPr>
@@ -409,7 +448,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>本地户籍：①已报户籍儿童以本人户籍所在地；②未报户籍儿童以母亲孕产妇系统管理或户籍所在地。不包括户籍在监测地区但离开本地</t>
     </r>
     <r>
       <rPr>
@@ -417,11 +456,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>年以上者。</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -453,8 +505,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -479,7 +531,6 @@
     <font>
       <sz val="11"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -487,13 +538,11 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -533,33 +582,19 @@
       <b/>
       <sz val="16"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,10 +609,53 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,10 +667,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,7 +701,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,53 +724,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,28 +732,24 @@
       <u/>
       <sz val="12"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="华文宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="华文仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -718,187 +762,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,15 +1066,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1039,10 +1074,47 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1063,15 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1087,32 +1150,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,133 +1180,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1988,7 +2032,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A13" sqref="A13:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2433,21 +2477,25 @@
       <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="K11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+        <v>45</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="28"/>
       <c r="U11" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="27"/>
@@ -2476,7 +2524,7 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A13" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2507,7 +2555,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:27">
       <c r="A14" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2538,7 +2586,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:7">
       <c r="B15" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -2548,12 +2596,12 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
